--- a/工作进度表.xlsx
+++ b/工作进度表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PersonalData\F2E\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F231835B-7E3A-41CC-9CC4-BE5B6F7E5873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AFEB9E-1886-4C19-8B4D-E4F64A1F61D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>项目计划追踪表</t>
   </si>
@@ -68,9 +68,6 @@
     <t>七</t>
   </si>
   <si>
-    <t>6月</t>
-  </si>
-  <si>
     <t>一</t>
   </si>
   <si>
@@ -80,12 +77,6 @@
     <t>三</t>
   </si>
   <si>
-    <t>vue3-vuecli-elementPlus-admin</t>
-  </si>
-  <si>
-    <t>temp-vue3-vite-ts-pinia-backmanager</t>
-  </si>
-  <si>
     <t>Next通关秘籍</t>
   </si>
   <si>
@@ -114,17 +105,25 @@
   </si>
   <si>
     <t>ts语言</t>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历更新</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -132,14 +131,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -147,8 +146,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -200,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,12 +220,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -229,18 +229,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -518,110 +518,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK39"/>
+  <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="47.1796875" style="1" customWidth="1"/>
-    <col min="2" max="3" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="37" width="3.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="5.6328125" style="1"/>
+    <col min="1" max="1" width="47.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.25" style="1" customWidth="1"/>
+    <col min="6" max="37" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="5.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:37" ht="15" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
     </row>
-    <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
+    <row r="2" spans="1:37" ht="15" customHeight="1">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
       <c r="AJ2" s="3"/>
       <c r="AK2" s="3"/>
     </row>
-    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="2">
         <v>1</v>
       </c>
@@ -719,110 +720,110 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:37" ht="18">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Z4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Z4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AB4" s="9" t="s">
+      <c r="AB4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AC4" s="9" t="s">
+      <c r="AC4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="AD4" s="9" t="s">
+      <c r="AD4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="AE4" s="9" t="s">
+      <c r="AE4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="9" t="s">
+      <c r="AG4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AH4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AI4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="AJ4" s="1" t="s">
@@ -832,48 +833,48 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>24</v>
+    <row r="5" spans="1:37" ht="18">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+      <c r="AE5" s="7"/>
+      <c r="AF5" s="7"/>
+      <c r="AG5" s="7"/>
+      <c r="AH5" s="7"/>
+      <c r="AI5" s="7"/>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -895,7 +896,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
-      <c r="V6" s="12"/>
+      <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -912,8 +913,10 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:37">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -951,8 +954,10 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:37">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -990,8 +995,10 @@
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:37">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1029,8 +1036,10 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:37">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1068,8 +1077,10 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:37">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1107,8 +1118,10 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:37">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1146,9 +1159,9 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>14</v>
+    <row r="13" spans="1:37">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1187,9 +1200,9 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>15</v>
+    <row r="14" spans="1:37">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1228,8 +1241,8 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:37">
+      <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1267,9 +1280,9 @@
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>16</v>
+    <row r="16" spans="1:37">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1308,10 +1321,8 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>22</v>
-      </c>
+    <row r="17" spans="1:37">
+      <c r="A17" s="8"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1349,10 +1360,8 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>17</v>
-      </c>
+    <row r="18" spans="1:37">
+      <c r="A18" s="8"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1390,10 +1399,8 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>23</v>
-      </c>
+    <row r="19" spans="1:37">
+      <c r="A19" s="8"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1431,10 +1438,8 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>18</v>
-      </c>
+    <row r="20" spans="1:37">
+      <c r="A20" s="8"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1472,10 +1477,8 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>19</v>
-      </c>
+    <row r="21" spans="1:37">
+      <c r="A21" s="8"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1513,10 +1516,8 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>20</v>
-      </c>
+    <row r="22" spans="1:37">
+      <c r="A22" s="8"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1554,10 +1555,8 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>21</v>
-      </c>
+    <row r="23" spans="1:37">
+      <c r="A23" s="8"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1595,8 +1594,8 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:37">
+      <c r="A24" s="8"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1634,8 +1633,8 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:37">
+      <c r="A25" s="8"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1673,377 +1672,27 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A26" s="11"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A27" s="11"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-      <c r="AK28" s="4"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-      <c r="AK29" s="4"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A30" s="11"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AE30" s="4"/>
-      <c r="AF30" s="4"/>
-      <c r="AG30" s="4"/>
-      <c r="AH30" s="4"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A31" s="11"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A32" s="11"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A33" s="11"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A34" s="11"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
+    <row r="26" spans="1:37">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E3"/>
     <mergeCell ref="F1:AI2"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
